--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>46.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,25 +748,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -800,15 +910,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>91.72</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.54</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -856,15 +986,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>84.56</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.07</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.17</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.03</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2369,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,17 +2381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2416,14 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.97</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2432,14 +2497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.17</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2448,14 +2535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.03</v>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2464,13 +2573,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.97</v>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2961,14 +3048,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.17</v>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2977,14 +3086,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.03</v>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2993,13 +3124,407 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.17</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>5.03</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘优质成长企业精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2767</t>
+          <t>0.2314</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘周期策略混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2463</t>
+          <t>0.1841</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.17</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1974</t>
+          <t>0.1391</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -775,27 +792,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘云端生活优选灵活配置混合</t>
+          <t>天弘云端生活优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>79.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>015769</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>天弘低碳经济混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0376</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010331</t>
+          <t>015770</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘消费股票A</t>
+          <t>天弘低碳经济混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010332</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘消费股票C</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>015460</t>
+          <t>010331</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合C</t>
+          <t>天弘消费股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>85.31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -998,32 +1015,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>010332</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘消费股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>85.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1036,34 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>015459</t>
+          <t>015460</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘精选混合C</t>
+          <t>天弘优质成长企业精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.17</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1072,34 +1091,108 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>015462</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘云端生活优选灵活配置混合C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1164,32 +1257,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2756</t>
+          <t>0.2767</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1202,36 +1295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.2463</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1240,36 +1333,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2054</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1288,22 +1381,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1316,36 +1409,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1354,36 +1447,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>82.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1392,36 +1485,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002388</t>
+          <t>010331</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘裕利灵活配置混合A</t>
+          <t>天弘消费股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1430,36 +1523,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010331</t>
+          <t>010332</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘消费股票A</t>
+          <t>天弘消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1468,36 +1561,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005997</t>
+          <t>015460</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘裕利灵活配置混合C</t>
+          <t>天弘优质成长企业精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1506,36 +1599,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010332</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘消费股票C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>82.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1544,36 +1637,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>015459</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1582,36 +1673,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009187</t>
+          <t>015462</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合C</t>
+          <t>天弘云端生活优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1686,26 +1775,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2692</t>
+          <t>0.2756</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1714,36 +1803,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>71.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2450</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1752,36 +1841,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.31</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.2054</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1800,22 +1889,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.73</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1828,36 +1917,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009128</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明亚价值长青混合A</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1014</t>
+          <t>0.0432</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1866,36 +1955,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>009186</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>天弘聚新三个月定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1904,36 +1993,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010331</t>
+          <t>002388</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘消费股票A</t>
+          <t>天弘裕利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>29.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1942,36 +2031,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>010331</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>天弘消费股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1980,36 +2069,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010332</t>
+          <t>005997</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘消费股票C</t>
+          <t>天弘裕利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>29.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2018,36 +2107,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>010332</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘消费股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2056,36 +2145,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009187</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2094,27 +2183,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009129</t>
+          <t>009187</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明亚价值长青混合C</t>
+          <t>天弘聚新三个月定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2123,7 +2212,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2132,6 +2221,518 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2491,7 +3092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2927,7 +3528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3287,7 +3888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603601-再升科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.17</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>5.03</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -616,7 +633,763 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015769</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1193,514 +1966,6 @@
       </c>
       <c r="H15" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2767</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2463</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1974</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>015458</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004694</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010331</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘消费股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010332</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘消费股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>015460</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004748</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>015459</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>015462</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>81.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1765,32 +2030,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2756</t>
+          <t>0.2767</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1803,36 +2068,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.2463</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1841,36 +2106,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2054</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1889,22 +2154,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.35</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1917,36 +2182,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1955,36 +2220,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>82.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1993,36 +2258,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002388</t>
+          <t>010331</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘裕利灵活配置混合A</t>
+          <t>天弘消费股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2031,36 +2296,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010331</t>
+          <t>010332</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘消费股票A</t>
+          <t>天弘消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2069,36 +2334,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005997</t>
+          <t>015460</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘裕利灵活配置混合C</t>
+          <t>天弘优质成长企业精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -2107,36 +2372,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010332</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘消费股票C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>82.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2145,36 +2410,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>015459</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2183,36 +2446,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009187</t>
+          <t>015462</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合C</t>
+          <t>天弘云端生活优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2287,26 +2548,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2692</t>
+          <t>0.2756</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2315,36 +2576,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>71.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2450</t>
+          <t>0.2327</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2353,36 +2614,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.31</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.2054</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2401,22 +2662,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.73</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2429,36 +2690,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009128</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>明亚价值长青混合A</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1014</t>
+          <t>0.0432</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2467,36 +2728,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>009186</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>天弘聚新三个月定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2505,36 +2766,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010331</t>
+          <t>002388</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘消费股票A</t>
+          <t>天弘裕利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>29.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2543,36 +2804,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>010331</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>天弘消费股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0258</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2581,36 +2842,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010332</t>
+          <t>005997</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘消费股票C</t>
+          <t>天弘裕利灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>29.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2619,36 +2880,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>010332</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘消费股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>83.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2657,36 +2918,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009187</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2695,27 +2956,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009129</t>
+          <t>009187</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>明亚价值长青混合C</t>
+          <t>天弘聚新三个月定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>71.30</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2724,7 +2985,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2733,6 +2994,518 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3092,7 +3865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3528,7 +4301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3886,250 +4659,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6216</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2618</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1129</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1054</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>